--- a/Mifos Automation Excels/Client/2484-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2484-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Disbursement</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -202,13 +199,16 @@
   </si>
   <si>
     <t>$ 640.68</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -302,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -345,6 +353,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,15 +674,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10">
         <v>42065</v>
@@ -687,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -704,22 +715,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,50 +1513,52 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>3765</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <v>42065</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <v>900</v>
@@ -1570,10 +1583,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>3733</v>
+        <v>149</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <v>42064</v>
@@ -1604,16 +1617,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3731</v>
+        <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="7">
         <v>42037</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>900</v>
@@ -1638,16 +1651,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3734</v>
+        <v>150</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7">
         <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6">
         <v>640.67999999999995</v>
@@ -1672,10 +1685,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3729</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>42005</v>
@@ -1701,8 +1714,8 @@
       <c r="J6" s="8">
         <v>5000</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,31 +1744,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,25 +1776,25 @@
         <v>151</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="12">
         <v>42005</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="I2" s="13"/>
     </row>
@@ -1790,26 +1803,26 @@
         <v>154</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="12">
         <v>42005</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1839,31 +1852,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1871,26 +1884,26 @@
         <v>31</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="14">
         <v>42050</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1898,26 +1911,26 @@
         <v>32</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="14">
         <v>42050</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1925,25 +1938,25 @@
         <v>33</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="14">
         <v>42050</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="13"/>
     </row>
@@ -1975,31 +1988,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,25 +2020,25 @@
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7">
         <v>42064</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="6"/>
     </row>
@@ -2034,26 +2047,26 @@
         <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <v>42064</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2085,31 +2098,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2117,26 +2130,26 @@
         <v>100</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="13">
         <v>42064</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,26 +2157,26 @@
         <v>101</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="13">
         <v>42064</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2171,25 +2184,25 @@
         <v>102</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="13">
         <v>42064</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="G4" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="13"/>
     </row>
@@ -2221,31 +2234,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2253,25 +2266,25 @@
         <v>165</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="18">
         <v>42064</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>59</v>
       </c>
       <c r="I2" s="19"/>
     </row>
@@ -2280,26 +2293,26 @@
         <v>166</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="18">
         <v>42064</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>52</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
